--- a/productos.xlsx
+++ b/productos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8797be5f11aa80b6/Desktop/Nueva carpeta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_7DFC85B0D377635ED3756C52EA042AF19038BA9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CA60672-657D-46D5-8448-EC0CB94773FA}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{54052151-FBCB-406C-BC2B-3BA155010AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44107F56-365F-4D96-9D6E-F1433287B5CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>nombre_producto</t>
   </si>
@@ -58,67 +58,25 @@
     <t>BARRIO TORRETIN</t>
   </si>
   <si>
-    <t>LEGEND</t>
-  </si>
-  <si>
-    <t>GUAYOS JUPITER</t>
-  </si>
-  <si>
     <t>BARRIO</t>
   </si>
   <si>
-    <t>MAX RUNNING LEGER</t>
-  </si>
-  <si>
-    <t>CG10</t>
-  </si>
-  <si>
-    <t>37,38,39,41,42</t>
-  </si>
-  <si>
-    <t>37,38,39,41,43</t>
-  </si>
-  <si>
-    <t>37,38,39,41,44</t>
-  </si>
-  <si>
-    <t>37,38,39,41,45</t>
-  </si>
-  <si>
-    <t>37,38,39,41,46</t>
-  </si>
-  <si>
-    <t>37,38,39,41,47</t>
-  </si>
-  <si>
-    <t>37,38,39,41,48</t>
-  </si>
-  <si>
-    <t>37,38,39,41,49</t>
-  </si>
-  <si>
-    <t>37,38,39,41,50</t>
-  </si>
-  <si>
-    <t>37,38,39,41,51</t>
-  </si>
-  <si>
-    <t>37,38,39,41,52</t>
-  </si>
-  <si>
-    <t>37,38,39,41,53</t>
-  </si>
-  <si>
-    <t>37,38,39,41,54</t>
-  </si>
-  <si>
-    <t>37,38,39,41,55</t>
-  </si>
-  <si>
-    <t>37,38,39,41,56</t>
-  </si>
-  <si>
     <t>tallas</t>
+  </si>
+  <si>
+    <t>VALO</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>UNIVERSAL</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>39,40,41,42,43</t>
   </si>
 </sst>
 </file>
@@ -148,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -183,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +464,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,26 +481,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>35000</v>
+      <c r="B2" s="2">
+        <v>43000</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>36000</v>
+      <c r="B3" s="2">
+        <v>43000</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -549,139 +514,139 @@
         <v>37000</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>38000</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>39000</v>
+      <c r="B6" s="2">
+        <v>37000</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>40000</v>
+      <c r="B7" s="2">
+        <v>45000</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>41000</v>
+      <c r="B8" s="2">
+        <v>38000</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>42000</v>
+      <c r="B9" s="2">
+        <v>38000</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>43000</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>44000</v>
+      <c r="B11" s="2">
+        <v>37000</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>45000</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>37000</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>46000</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>37000</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>47000</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>37000</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>48000</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>37000</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>49000</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>37000</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
